--- a/anjou/부록_엑셀_이럴땐이렇게/1. 입력수정/2. 표시 형식/주문 관리.xlsx
+++ b/anjou/부록_엑셀_이럴땐이렇게/1. 입력수정/2. 표시 형식/주문 관리.xlsx
@@ -1,35 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gilbut\Desktop\예제\새 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\부록_엑셀_이럴땐이렇게\1. 입력수정\2. 표시 형식\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC31C54A-07AC-440D-89D4-826E890CA6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE9CF50-4468-4120-A92D-5101732AD121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22944" yWindow="0" windowWidth="23232" windowHeight="25296" xr2:uid="{ABFA1BBB-AD25-411A-826A-887A1A32685F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{ABFA1BBB-AD25-411A-826A-887A1A32685F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -86,6 +75,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;\ hh&quot;시&quot;mm&quot;분&quot;"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -189,7 +181,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -213,6 +205,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,21 +549,21 @@
   <dimension ref="B1:F18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.8984375" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="11.19921875" customWidth="1"/>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="15.19921875" customWidth="1"/>
-    <col min="7" max="7" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:6" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:6" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -574,14 +572,14 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="2:6" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="3" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
@@ -598,8 +596,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B7" s="4"/>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="8">
+        <v>45413.430555555555</v>
+      </c>
       <c r="C7" s="4">
         <v>8754855</v>
       </c>
@@ -613,8 +613,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B8" s="4"/>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="8">
+        <v>45420.436805555553</v>
+      </c>
       <c r="C8" s="4">
         <v>9653983</v>
       </c>
@@ -628,70 +630,70 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B9" s="4"/>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="4"/>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="4"/>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="8"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B12" s="4"/>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="5"/>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="9"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B14" s="5"/>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="9"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B15" s="5"/>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="9"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B16" s="5"/>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="9"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B17" s="5"/>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="9"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>

--- a/anjou/부록_엑셀_이럴땐이렇게/1. 입력수정/2. 표시 형식/주문 관리.xlsx
+++ b/anjou/부록_엑셀_이럴땐이렇게/1. 입력수정/2. 표시 형식/주문 관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\부록_엑셀_이럴땐이렇게\1. 입력수정\2. 표시 형식\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE9CF50-4468-4120-A92D-5101732AD121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB41417C-91BB-43F7-B100-94C3FE05BF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{ABFA1BBB-AD25-411A-826A-887A1A32685F}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;\ hh&quot;시&quot;mm&quot;분&quot;"/>
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;\ hh&quot;시&quot;mm&quot;분&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -203,14 +203,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,7 +549,7 @@
   <dimension ref="B1:F18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -564,13 +564,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:6" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
@@ -597,7 +597,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>45413.430555555555</v>
       </c>
       <c r="C7" s="4">
@@ -614,7 +614,7 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>45420.436805555553</v>
       </c>
       <c r="C8" s="4">
@@ -631,63 +631,65 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="8"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="8"/>
+      <c r="B10" s="7">
+        <v>45421</v>
+      </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="8"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="8"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="9"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="9"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="9"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="9"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="9"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
